--- a/Final Cluster.xlsx
+++ b/Final Cluster.xlsx
@@ -3381,7 +3381,7 @@
         <v>528</v>
       </c>
       <c r="E15" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="16">
@@ -3432,7 +3432,7 @@
         <v>531</v>
       </c>
       <c r="E18" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="19">
@@ -3466,7 +3466,7 @@
         <v>533</v>
       </c>
       <c r="E20" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="21">
@@ -3483,7 +3483,7 @@
         <v>534</v>
       </c>
       <c r="E21" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="22">
@@ -3500,7 +3500,7 @@
         <v>535</v>
       </c>
       <c r="E22" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="23">
@@ -3636,7 +3636,7 @@
         <v>543</v>
       </c>
       <c r="E30" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="31">
@@ -3670,7 +3670,7 @@
         <v>545</v>
       </c>
       <c r="E32" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="33">
@@ -3687,7 +3687,7 @@
         <v>546</v>
       </c>
       <c r="E33" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="34">
@@ -3704,7 +3704,7 @@
         <v>547</v>
       </c>
       <c r="E34" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="35">
@@ -3721,7 +3721,7 @@
         <v>548</v>
       </c>
       <c r="E35" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="36">
@@ -3738,7 +3738,7 @@
         <v>549</v>
       </c>
       <c r="E36" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="37">
@@ -3789,7 +3789,7 @@
         <v>552</v>
       </c>
       <c r="E39" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="40">
@@ -3840,7 +3840,7 @@
         <v>555</v>
       </c>
       <c r="E42" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="43">
@@ -3857,7 +3857,7 @@
         <v>556</v>
       </c>
       <c r="E43" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         <v>563</v>
       </c>
       <c r="E50" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="51">
@@ -3993,7 +3993,7 @@
         <v>564</v>
       </c>
       <c r="E51" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="52">
@@ -4010,7 +4010,7 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="53">
@@ -4027,7 +4027,7 @@
         <v>566</v>
       </c>
       <c r="E53" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="54">
@@ -4044,7 +4044,7 @@
         <v>567</v>
       </c>
       <c r="E54" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="55">
@@ -4061,7 +4061,7 @@
         <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="56">
@@ -4078,7 +4078,7 @@
         <v>569</v>
       </c>
       <c r="E56" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="57">
@@ -4095,7 +4095,7 @@
         <v>570</v>
       </c>
       <c r="E57" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="58">
@@ -4180,7 +4180,7 @@
         <v>575</v>
       </c>
       <c r="E62" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="63">
@@ -4214,7 +4214,7 @@
         <v>577</v>
       </c>
       <c r="E64" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="65">
@@ -4265,7 +4265,7 @@
         <v>580</v>
       </c>
       <c r="E67" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="68">
@@ -4316,7 +4316,7 @@
         <v>583</v>
       </c>
       <c r="E70" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="71">
@@ -4333,7 +4333,7 @@
         <v>584</v>
       </c>
       <c r="E71" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="72">
@@ -4350,7 +4350,7 @@
         <v>585</v>
       </c>
       <c r="E72" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="73">
@@ -4367,7 +4367,7 @@
         <v>586</v>
       </c>
       <c r="E73" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="74">
@@ -4384,7 +4384,7 @@
         <v>587</v>
       </c>
       <c r="E74" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="75">
@@ -4401,7 +4401,7 @@
         <v>588</v>
       </c>
       <c r="E75" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="76">
@@ -4503,7 +4503,7 @@
         <v>594</v>
       </c>
       <c r="E81" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="82">
@@ -4554,7 +4554,7 @@
         <v>597</v>
       </c>
       <c r="E84" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="85">
@@ -4605,7 +4605,7 @@
         <v>600</v>
       </c>
       <c r="E87" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="88">
@@ -4622,7 +4622,7 @@
         <v>601</v>
       </c>
       <c r="E88" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="89">
@@ -4639,7 +4639,7 @@
         <v>602</v>
       </c>
       <c r="E89" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="90">
@@ -4792,7 +4792,7 @@
         <v>611</v>
       </c>
       <c r="E98" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="99">
@@ -4809,7 +4809,7 @@
         <v>612</v>
       </c>
       <c r="E99" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="100">
@@ -4826,7 +4826,7 @@
         <v>613</v>
       </c>
       <c r="E100" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="101">
@@ -5047,7 +5047,7 @@
         <v>626</v>
       </c>
       <c r="E113" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="114">
@@ -5064,7 +5064,7 @@
         <v>627</v>
       </c>
       <c r="E114" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="115">
@@ -5098,7 +5098,7 @@
         <v>629</v>
       </c>
       <c r="E116" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="117">
@@ -5268,7 +5268,7 @@
         <v>639</v>
       </c>
       <c r="E126" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="127">
@@ -5506,7 +5506,7 @@
         <v>653</v>
       </c>
       <c r="E140" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="141">
@@ -5574,7 +5574,7 @@
         <v>657</v>
       </c>
       <c r="E144" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="145">
@@ -5642,7 +5642,7 @@
         <v>661</v>
       </c>
       <c r="E148" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="149">
@@ -5659,7 +5659,7 @@
         <v>662</v>
       </c>
       <c r="E149" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="150">
@@ -5676,7 +5676,7 @@
         <v>663</v>
       </c>
       <c r="E150" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="151">
@@ -5693,7 +5693,7 @@
         <v>664</v>
       </c>
       <c r="E151" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="152">
@@ -5710,7 +5710,7 @@
         <v>665</v>
       </c>
       <c r="E152" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="153">
@@ -5744,7 +5744,7 @@
         <v>667</v>
       </c>
       <c r="E154" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="155">
@@ -5761,7 +5761,7 @@
         <v>668</v>
       </c>
       <c r="E155" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="156">
@@ -5795,7 +5795,7 @@
         <v>670</v>
       </c>
       <c r="E157" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="158">
@@ -5812,7 +5812,7 @@
         <v>671</v>
       </c>
       <c r="E158" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="159">
@@ -5829,7 +5829,7 @@
         <v>672</v>
       </c>
       <c r="E159" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="160">
@@ -5846,7 +5846,7 @@
         <v>673</v>
       </c>
       <c r="E160" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="161">
@@ -5863,7 +5863,7 @@
         <v>674</v>
       </c>
       <c r="E161" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="162">
@@ -5880,7 +5880,7 @@
         <v>675</v>
       </c>
       <c r="E162" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="163">
@@ -5931,7 +5931,7 @@
         <v>678</v>
       </c>
       <c r="E165" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="166">
@@ -6050,7 +6050,7 @@
         <v>685</v>
       </c>
       <c r="E172" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="173">
@@ -6101,7 +6101,7 @@
         <v>688</v>
       </c>
       <c r="E175" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="176">
@@ -6135,7 +6135,7 @@
         <v>690</v>
       </c>
       <c r="E177" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="178">
@@ -6152,7 +6152,7 @@
         <v>691</v>
       </c>
       <c r="E178" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="179">
@@ -6186,7 +6186,7 @@
         <v>693</v>
       </c>
       <c r="E180" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="181">
@@ -6203,7 +6203,7 @@
         <v>694</v>
       </c>
       <c r="E181" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="182">
@@ -6220,7 +6220,7 @@
         <v>695</v>
       </c>
       <c r="E182" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="183">
@@ -6237,7 +6237,7 @@
         <v>696</v>
       </c>
       <c r="E183" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="184">
@@ -6254,7 +6254,7 @@
         <v>697</v>
       </c>
       <c r="E184" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="185">
@@ -6271,7 +6271,7 @@
         <v>698</v>
       </c>
       <c r="E185" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="186">
@@ -6288,7 +6288,7 @@
         <v>699</v>
       </c>
       <c r="E186" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="187">
@@ -6441,7 +6441,7 @@
         <v>708</v>
       </c>
       <c r="E195" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="196">
@@ -6509,7 +6509,7 @@
         <v>712</v>
       </c>
       <c r="E199" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="200">
@@ -6543,7 +6543,7 @@
         <v>714</v>
       </c>
       <c r="E201" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="202">
@@ -6560,7 +6560,7 @@
         <v>715</v>
       </c>
       <c r="E202" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="203">
@@ -6645,7 +6645,7 @@
         <v>720</v>
       </c>
       <c r="E207" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="208">
@@ -6679,7 +6679,7 @@
         <v>722</v>
       </c>
       <c r="E209" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="210">
@@ -6696,7 +6696,7 @@
         <v>723</v>
       </c>
       <c r="E210" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="211">
@@ -6730,7 +6730,7 @@
         <v>725</v>
       </c>
       <c r="E212" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="213">
@@ -6798,7 +6798,7 @@
         <v>729</v>
       </c>
       <c r="E216" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="217">
@@ -6849,7 +6849,7 @@
         <v>732</v>
       </c>
       <c r="E219" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="220">
@@ -6866,7 +6866,7 @@
         <v>733</v>
       </c>
       <c r="E220" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="221">
@@ -6883,7 +6883,7 @@
         <v>734</v>
       </c>
       <c r="E221" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="222">
@@ -6900,7 +6900,7 @@
         <v>735</v>
       </c>
       <c r="E222" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="223">
@@ -6917,7 +6917,7 @@
         <v>736</v>
       </c>
       <c r="E223" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="224">
@@ -7002,7 +7002,7 @@
         <v>741</v>
       </c>
       <c r="E228" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="229">
@@ -7257,7 +7257,7 @@
         <v>756</v>
       </c>
       <c r="E243" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="244">
@@ -7325,7 +7325,7 @@
         <v>760</v>
       </c>
       <c r="E247" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="248">
@@ -7342,7 +7342,7 @@
         <v>761</v>
       </c>
       <c r="E248" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="249">
@@ -7427,7 +7427,7 @@
         <v>766</v>
       </c>
       <c r="E253" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="254">
@@ -7546,7 +7546,7 @@
         <v>771</v>
       </c>
       <c r="E260" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="261">
@@ -7563,7 +7563,7 @@
         <v>772</v>
       </c>
       <c r="E261" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="262">
@@ -7580,7 +7580,7 @@
         <v>773</v>
       </c>
       <c r="E262" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="263">
@@ -7597,7 +7597,7 @@
         <v>774</v>
       </c>
       <c r="E263" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="264">
@@ -7614,7 +7614,7 @@
         <v>775</v>
       </c>
       <c r="E264" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="265">
@@ -7631,7 +7631,7 @@
         <v>776</v>
       </c>
       <c r="E265" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="266">
@@ -7648,7 +7648,7 @@
         <v>777</v>
       </c>
       <c r="E266" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="267">
@@ -7699,7 +7699,7 @@
         <v>780</v>
       </c>
       <c r="E269" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="270">
@@ -7733,7 +7733,7 @@
         <v>780</v>
       </c>
       <c r="E271" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="272">
@@ -7750,7 +7750,7 @@
         <v>782</v>
       </c>
       <c r="E272" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="273">
@@ -7784,7 +7784,7 @@
         <v>784</v>
       </c>
       <c r="E274" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="275">
@@ -7801,7 +7801,7 @@
         <v>785</v>
       </c>
       <c r="E275" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="276">
@@ -7818,7 +7818,7 @@
         <v>786</v>
       </c>
       <c r="E276" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="277">
@@ -7835,7 +7835,7 @@
         <v>787</v>
       </c>
       <c r="E277" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="278">
@@ -7852,7 +7852,7 @@
         <v>788</v>
       </c>
       <c r="E278" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="279">
@@ -7869,7 +7869,7 @@
         <v>789</v>
       </c>
       <c r="E279" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="280">
@@ -7886,7 +7886,7 @@
         <v>790</v>
       </c>
       <c r="E280" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="281">
@@ -7903,7 +7903,7 @@
         <v>791</v>
       </c>
       <c r="E281" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="282">
@@ -7920,7 +7920,7 @@
         <v>792</v>
       </c>
       <c r="E282" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="283">
@@ -7937,7 +7937,7 @@
         <v>793</v>
       </c>
       <c r="E283" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="284">
@@ -8056,7 +8056,7 @@
         <v>800</v>
       </c>
       <c r="E290" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="291">
@@ -8090,7 +8090,7 @@
         <v>802</v>
       </c>
       <c r="E292" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="293">
@@ -8107,7 +8107,7 @@
         <v>803</v>
       </c>
       <c r="E293" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="294">
@@ -8311,7 +8311,7 @@
         <v>815</v>
       </c>
       <c r="E305" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="306">
@@ -8481,7 +8481,7 @@
         <v>825</v>
       </c>
       <c r="E315" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="316">
@@ -8702,7 +8702,7 @@
         <v>838</v>
       </c>
       <c r="E328" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="329">
@@ -8719,7 +8719,7 @@
         <v>839</v>
       </c>
       <c r="E329" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="330">
@@ -8736,7 +8736,7 @@
         <v>840</v>
       </c>
       <c r="E330" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="331">
@@ -8753,7 +8753,7 @@
         <v>841</v>
       </c>
       <c r="E331" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="332">
@@ -8787,7 +8787,7 @@
         <v>843</v>
       </c>
       <c r="E333" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="334">
@@ -8804,7 +8804,7 @@
         <v>844</v>
       </c>
       <c r="E334" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="335">
@@ -8855,7 +8855,7 @@
         <v>847</v>
       </c>
       <c r="E337" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="338">
@@ -8957,7 +8957,7 @@
         <v>853</v>
       </c>
       <c r="E343" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="344">
@@ -8991,7 +8991,7 @@
         <v>855</v>
       </c>
       <c r="E345" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="346">
@@ -9008,7 +9008,7 @@
         <v>856</v>
       </c>
       <c r="E346" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="347">
@@ -9025,7 +9025,7 @@
         <v>857</v>
       </c>
       <c r="E347" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="348">
@@ -9042,7 +9042,7 @@
         <v>858</v>
       </c>
       <c r="E348" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="349">
@@ -9059,7 +9059,7 @@
         <v>859</v>
       </c>
       <c r="E349" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="350">
@@ -9076,7 +9076,7 @@
         <v>860</v>
       </c>
       <c r="E350" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="351">
@@ -9093,7 +9093,7 @@
         <v>861</v>
       </c>
       <c r="E351" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="352">
@@ -9110,7 +9110,7 @@
         <v>862</v>
       </c>
       <c r="E352" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="353">
@@ -9127,7 +9127,7 @@
         <v>863</v>
       </c>
       <c r="E353" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="354">
@@ -9144,7 +9144,7 @@
         <v>864</v>
       </c>
       <c r="E354" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="355">
@@ -9161,7 +9161,7 @@
         <v>865</v>
       </c>
       <c r="E355" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="356">
@@ -9178,7 +9178,7 @@
         <v>866</v>
       </c>
       <c r="E356" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="357">
@@ -9195,7 +9195,7 @@
         <v>867</v>
       </c>
       <c r="E357" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="358">
@@ -9212,7 +9212,7 @@
         <v>868</v>
       </c>
       <c r="E358" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="359">
@@ -9229,7 +9229,7 @@
         <v>869</v>
       </c>
       <c r="E359" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="360">
@@ -9246,7 +9246,7 @@
         <v>870</v>
       </c>
       <c r="E360" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="361">
@@ -9263,7 +9263,7 @@
         <v>871</v>
       </c>
       <c r="E361" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="362">
@@ -9314,7 +9314,7 @@
         <v>874</v>
       </c>
       <c r="E364" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="365">
@@ -9331,7 +9331,7 @@
         <v>875</v>
       </c>
       <c r="E365" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="366">
@@ -9348,7 +9348,7 @@
         <v>876</v>
       </c>
       <c r="E366" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="367">
@@ -9365,7 +9365,7 @@
         <v>877</v>
       </c>
       <c r="E367" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="368">
@@ -9382,7 +9382,7 @@
         <v>878</v>
       </c>
       <c r="E368" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="369">
@@ -9399,7 +9399,7 @@
         <v>879</v>
       </c>
       <c r="E369" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="370">
@@ -9416,7 +9416,7 @@
         <v>880</v>
       </c>
       <c r="E370" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="371">
@@ -9433,7 +9433,7 @@
         <v>881</v>
       </c>
       <c r="E371" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="372">
@@ -9467,7 +9467,7 @@
         <v>883</v>
       </c>
       <c r="E373" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="374">
@@ -9501,7 +9501,7 @@
         <v>885</v>
       </c>
       <c r="E375" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="376">
@@ -9535,7 +9535,7 @@
         <v>887</v>
       </c>
       <c r="E377" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="378">
@@ -9637,7 +9637,7 @@
         <v>893</v>
       </c>
       <c r="E383" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="384">
@@ -9654,7 +9654,7 @@
         <v>894</v>
       </c>
       <c r="E384" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="385">
@@ -9671,7 +9671,7 @@
         <v>895</v>
       </c>
       <c r="E385" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="386">
@@ -9688,7 +9688,7 @@
         <v>896</v>
       </c>
       <c r="E386" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="387">
@@ -9756,7 +9756,7 @@
         <v>900</v>
       </c>
       <c r="E390" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="391">
@@ -9909,7 +9909,7 @@
         <v>909</v>
       </c>
       <c r="E399" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="400">
@@ -9960,7 +9960,7 @@
         <v>912</v>
       </c>
       <c r="E402" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="403">
@@ -9994,7 +9994,7 @@
         <v>914</v>
       </c>
       <c r="E404" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="405">
@@ -10045,7 +10045,7 @@
         <v>917</v>
       </c>
       <c r="E407" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="408">
@@ -10130,7 +10130,7 @@
         <v>922</v>
       </c>
       <c r="E412" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="413">
@@ -10147,7 +10147,7 @@
         <v>923</v>
       </c>
       <c r="E413" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="414">
@@ -10266,7 +10266,7 @@
         <v>930</v>
       </c>
       <c r="E420" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="421">
@@ -10283,7 +10283,7 @@
         <v>931</v>
       </c>
       <c r="E421" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="422">
@@ -10300,7 +10300,7 @@
         <v>932</v>
       </c>
       <c r="E422" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="423">
@@ -10317,7 +10317,7 @@
         <v>933</v>
       </c>
       <c r="E423" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="424">
@@ -10453,7 +10453,7 @@
         <v>941</v>
       </c>
       <c r="E431" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="432">
@@ -10504,7 +10504,7 @@
         <v>944</v>
       </c>
       <c r="E434" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="435">
@@ -10538,7 +10538,7 @@
         <v>946</v>
       </c>
       <c r="E436" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="437">
@@ -10555,7 +10555,7 @@
         <v>947</v>
       </c>
       <c r="E437" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="438">
@@ -10657,7 +10657,7 @@
         <v>953</v>
       </c>
       <c r="E443" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="444">
@@ -10810,7 +10810,7 @@
         <v>962</v>
       </c>
       <c r="E452" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="453">
@@ -10929,7 +10929,7 @@
         <v>969</v>
       </c>
       <c r="E459" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="460">
@@ -11031,7 +11031,7 @@
         <v>975</v>
       </c>
       <c r="E465" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="466">
@@ -11099,7 +11099,7 @@
         <v>979</v>
       </c>
       <c r="E469" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="470">
@@ -11116,7 +11116,7 @@
         <v>980</v>
       </c>
       <c r="E470" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="471">
@@ -11133,7 +11133,7 @@
         <v>981</v>
       </c>
       <c r="E471" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="472">
@@ -11337,7 +11337,7 @@
         <v>993</v>
       </c>
       <c r="E483" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="484">
@@ -11388,7 +11388,7 @@
         <v>996</v>
       </c>
       <c r="E486" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="487">
@@ -11422,7 +11422,7 @@
         <v>998</v>
       </c>
       <c r="E488" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="489">
@@ -11439,7 +11439,7 @@
         <v>999</v>
       </c>
       <c r="E489" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="490">
@@ -11830,7 +11830,7 @@
         <v>1022</v>
       </c>
       <c r="E512" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>

--- a/Final Cluster.xlsx
+++ b/Final Cluster.xlsx
@@ -3194,7 +3194,7 @@
         <v>517</v>
       </c>
       <c r="E4" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -3211,7 +3211,7 @@
         <v>518</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
@@ -3228,7 +3228,7 @@
         <v>519</v>
       </c>
       <c r="E6" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
@@ -3279,7 +3279,7 @@
         <v>522</v>
       </c>
       <c r="E9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
@@ -3296,7 +3296,7 @@
         <v>523</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="11">
@@ -3330,7 +3330,7 @@
         <v>525</v>
       </c>
       <c r="E12" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="13">
@@ -3347,7 +3347,7 @@
         <v>526</v>
       </c>
       <c r="E13" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="14">
@@ -3364,7 +3364,7 @@
         <v>527</v>
       </c>
       <c r="E14" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="15">
@@ -3398,7 +3398,7 @@
         <v>529</v>
       </c>
       <c r="E16" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="17">
@@ -3449,7 +3449,7 @@
         <v>532</v>
       </c>
       <c r="E19" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="20">
@@ -3466,7 +3466,7 @@
         <v>533</v>
       </c>
       <c r="E20" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
@@ -3483,7 +3483,7 @@
         <v>534</v>
       </c>
       <c r="E21" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
@@ -3500,7 +3500,7 @@
         <v>535</v>
       </c>
       <c r="E22" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
@@ -3551,7 +3551,7 @@
         <v>538</v>
       </c>
       <c r="E25" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="26">
@@ -3568,7 +3568,7 @@
         <v>539</v>
       </c>
       <c r="E26" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="27">
@@ -3585,7 +3585,7 @@
         <v>540</v>
       </c>
       <c r="E27" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="28">
@@ -3602,7 +3602,7 @@
         <v>541</v>
       </c>
       <c r="E28" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="29">
@@ -3619,7 +3619,7 @@
         <v>542</v>
       </c>
       <c r="E29" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="30">
@@ -3653,7 +3653,7 @@
         <v>544</v>
       </c>
       <c r="E31" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="32">
@@ -3687,7 +3687,7 @@
         <v>546</v>
       </c>
       <c r="E33" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="34">
@@ -3721,7 +3721,7 @@
         <v>548</v>
       </c>
       <c r="E35" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="36">
@@ -3738,7 +3738,7 @@
         <v>549</v>
       </c>
       <c r="E36" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="37">
@@ -3772,7 +3772,7 @@
         <v>551</v>
       </c>
       <c r="E38" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="39">
@@ -3789,7 +3789,7 @@
         <v>552</v>
       </c>
       <c r="E39" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="40">
@@ -3823,7 +3823,7 @@
         <v>554</v>
       </c>
       <c r="E41" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="42">
@@ -3840,7 +3840,7 @@
         <v>555</v>
       </c>
       <c r="E42" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="43">
@@ -3857,7 +3857,7 @@
         <v>556</v>
       </c>
       <c r="E43" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="44">
@@ -3874,7 +3874,7 @@
         <v>557</v>
       </c>
       <c r="E44" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="45">
@@ -3891,7 +3891,7 @@
         <v>558</v>
       </c>
       <c r="E45" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="46">
@@ -3908,7 +3908,7 @@
         <v>559</v>
       </c>
       <c r="E46" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="47">
@@ -3925,7 +3925,7 @@
         <v>560</v>
       </c>
       <c r="E47" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="48">
@@ -3942,7 +3942,7 @@
         <v>561</v>
       </c>
       <c r="E48" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="49">
@@ -3959,7 +3959,7 @@
         <v>562</v>
       </c>
       <c r="E49" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="50">
@@ -3976,7 +3976,7 @@
         <v>563</v>
       </c>
       <c r="E50" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="51">
@@ -3993,7 +3993,7 @@
         <v>564</v>
       </c>
       <c r="E51" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="52">
@@ -4010,7 +4010,7 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="53">
@@ -4027,7 +4027,7 @@
         <v>566</v>
       </c>
       <c r="E53" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="54">
@@ -4044,7 +4044,7 @@
         <v>567</v>
       </c>
       <c r="E54" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="55">
@@ -4061,7 +4061,7 @@
         <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="56">
@@ -4078,7 +4078,7 @@
         <v>569</v>
       </c>
       <c r="E56" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="57">
@@ -4112,7 +4112,7 @@
         <v>571</v>
       </c>
       <c r="E58" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="59">
@@ -4146,7 +4146,7 @@
         <v>573</v>
       </c>
       <c r="E60" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="61">
@@ -4248,7 +4248,7 @@
         <v>579</v>
       </c>
       <c r="E66" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="67">
@@ -4282,7 +4282,7 @@
         <v>581</v>
       </c>
       <c r="E68" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="69">
@@ -4299,7 +4299,7 @@
         <v>582</v>
       </c>
       <c r="E69" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="70">
@@ -4316,7 +4316,7 @@
         <v>583</v>
       </c>
       <c r="E70" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="71">
@@ -4333,7 +4333,7 @@
         <v>584</v>
       </c>
       <c r="E71" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="72">
@@ -4350,7 +4350,7 @@
         <v>585</v>
       </c>
       <c r="E72" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="73">
@@ -4367,7 +4367,7 @@
         <v>586</v>
       </c>
       <c r="E73" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="74">
@@ -4384,7 +4384,7 @@
         <v>587</v>
       </c>
       <c r="E74" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="75">
@@ -4401,7 +4401,7 @@
         <v>588</v>
       </c>
       <c r="E75" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="76">
@@ -4452,7 +4452,7 @@
         <v>591</v>
       </c>
       <c r="E78" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="79">
@@ -4520,7 +4520,7 @@
         <v>595</v>
       </c>
       <c r="E82" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="83">
@@ -4537,7 +4537,7 @@
         <v>596</v>
       </c>
       <c r="E83" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="84">
@@ -4571,7 +4571,7 @@
         <v>598</v>
       </c>
       <c r="E85" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="86">
@@ -4605,7 +4605,7 @@
         <v>600</v>
       </c>
       <c r="E87" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="88">
@@ -4639,7 +4639,7 @@
         <v>602</v>
       </c>
       <c r="E89" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="90">
@@ -4741,7 +4741,7 @@
         <v>608</v>
       </c>
       <c r="E95" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="96">
@@ -4792,7 +4792,7 @@
         <v>611</v>
       </c>
       <c r="E98" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="99">
@@ -4809,7 +4809,7 @@
         <v>612</v>
       </c>
       <c r="E99" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="100">
@@ -4945,7 +4945,7 @@
         <v>620</v>
       </c>
       <c r="E107" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="108">
@@ -4996,7 +4996,7 @@
         <v>623</v>
       </c>
       <c r="E110" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="111">
@@ -5030,7 +5030,7 @@
         <v>625</v>
       </c>
       <c r="E112" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="113">
@@ -5047,7 +5047,7 @@
         <v>626</v>
       </c>
       <c r="E113" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="114">
@@ -5081,7 +5081,7 @@
         <v>628</v>
       </c>
       <c r="E115" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="116">
@@ -5200,7 +5200,7 @@
         <v>635</v>
       </c>
       <c r="E122" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="123">
@@ -5217,7 +5217,7 @@
         <v>636</v>
       </c>
       <c r="E123" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="124">
@@ -5234,7 +5234,7 @@
         <v>637</v>
       </c>
       <c r="E124" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="125">
@@ -5251,7 +5251,7 @@
         <v>638</v>
       </c>
       <c r="E125" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="126">
@@ -5268,7 +5268,7 @@
         <v>639</v>
       </c>
       <c r="E126" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="127">
@@ -5319,7 +5319,7 @@
         <v>642</v>
       </c>
       <c r="E129" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="130">
@@ -5336,7 +5336,7 @@
         <v>643</v>
       </c>
       <c r="E130" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="131">
@@ -5353,7 +5353,7 @@
         <v>644</v>
       </c>
       <c r="E131" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="132">
@@ -5370,7 +5370,7 @@
         <v>645</v>
       </c>
       <c r="E132" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="133">
@@ -5404,7 +5404,7 @@
         <v>647</v>
       </c>
       <c r="E134" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="135">
@@ -5438,7 +5438,7 @@
         <v>649</v>
       </c>
       <c r="E136" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="137">
@@ -5455,7 +5455,7 @@
         <v>650</v>
       </c>
       <c r="E137" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="138">
@@ -5472,7 +5472,7 @@
         <v>651</v>
       </c>
       <c r="E138" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="139">
@@ -5489,7 +5489,7 @@
         <v>652</v>
       </c>
       <c r="E139" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="140">
@@ -5506,7 +5506,7 @@
         <v>653</v>
       </c>
       <c r="E140" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="141">
@@ -5557,7 +5557,7 @@
         <v>656</v>
       </c>
       <c r="E143" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="144">
@@ -5591,7 +5591,7 @@
         <v>658</v>
       </c>
       <c r="E145" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="146">
@@ -5625,7 +5625,7 @@
         <v>660</v>
       </c>
       <c r="E147" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="148">
@@ -5659,7 +5659,7 @@
         <v>662</v>
       </c>
       <c r="E149" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="150">
@@ -5693,7 +5693,7 @@
         <v>664</v>
       </c>
       <c r="E151" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="152">
@@ -5710,7 +5710,7 @@
         <v>665</v>
       </c>
       <c r="E152" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="153">
@@ -5727,7 +5727,7 @@
         <v>666</v>
       </c>
       <c r="E153" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="154">
@@ -5744,7 +5744,7 @@
         <v>667</v>
       </c>
       <c r="E154" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="155">
@@ -5761,7 +5761,7 @@
         <v>668</v>
       </c>
       <c r="E155" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="156">
@@ -5812,7 +5812,7 @@
         <v>671</v>
       </c>
       <c r="E158" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="159">
@@ -5829,7 +5829,7 @@
         <v>672</v>
       </c>
       <c r="E159" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="160">
@@ -5846,7 +5846,7 @@
         <v>673</v>
       </c>
       <c r="E160" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="161">
@@ -5863,7 +5863,7 @@
         <v>674</v>
       </c>
       <c r="E161" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="162">
@@ -5999,7 +5999,7 @@
         <v>682</v>
       </c>
       <c r="E169" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="170">
@@ -6084,7 +6084,7 @@
         <v>687</v>
       </c>
       <c r="E174" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="175">
@@ -6118,7 +6118,7 @@
         <v>689</v>
       </c>
       <c r="E176" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="177">
@@ -6135,7 +6135,7 @@
         <v>690</v>
       </c>
       <c r="E177" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="178">
@@ -6186,7 +6186,7 @@
         <v>693</v>
       </c>
       <c r="E180" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="181">
@@ -6220,7 +6220,7 @@
         <v>695</v>
       </c>
       <c r="E182" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="183">
@@ -6237,7 +6237,7 @@
         <v>696</v>
       </c>
       <c r="E183" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="184">
@@ -6254,7 +6254,7 @@
         <v>697</v>
       </c>
       <c r="E184" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="185">
@@ -6271,7 +6271,7 @@
         <v>698</v>
       </c>
       <c r="E185" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="186">
@@ -6288,7 +6288,7 @@
         <v>699</v>
       </c>
       <c r="E186" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="187">
@@ -6305,7 +6305,7 @@
         <v>700</v>
       </c>
       <c r="E187" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="188">
@@ -6356,7 +6356,7 @@
         <v>703</v>
       </c>
       <c r="E190" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="191">
@@ -6424,7 +6424,7 @@
         <v>707</v>
       </c>
       <c r="E194" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="195">
@@ -6441,7 +6441,7 @@
         <v>708</v>
       </c>
       <c r="E195" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="196">
@@ -6526,7 +6526,7 @@
         <v>713</v>
       </c>
       <c r="E200" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="201">
@@ -6662,7 +6662,7 @@
         <v>721</v>
       </c>
       <c r="E208" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="209">
@@ -6832,7 +6832,7 @@
         <v>731</v>
       </c>
       <c r="E218" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="219">
@@ -6849,7 +6849,7 @@
         <v>732</v>
       </c>
       <c r="E219" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="220">
@@ -6866,7 +6866,7 @@
         <v>733</v>
       </c>
       <c r="E220" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="221">
@@ -6883,7 +6883,7 @@
         <v>734</v>
       </c>
       <c r="E221" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="222">
@@ -6900,7 +6900,7 @@
         <v>735</v>
       </c>
       <c r="E222" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="223">
@@ -6917,7 +6917,7 @@
         <v>736</v>
       </c>
       <c r="E223" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="224">
@@ -6934,7 +6934,7 @@
         <v>737</v>
       </c>
       <c r="E224" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="225">
@@ -7002,7 +7002,7 @@
         <v>741</v>
       </c>
       <c r="E228" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="229">
@@ -7019,7 +7019,7 @@
         <v>742</v>
       </c>
       <c r="E229" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="230">
@@ -7036,7 +7036,7 @@
         <v>743</v>
       </c>
       <c r="E230" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="231">
@@ -7070,7 +7070,7 @@
         <v>745</v>
       </c>
       <c r="E232" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="233">
@@ -7104,7 +7104,7 @@
         <v>747</v>
       </c>
       <c r="E234" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="235">
@@ -7189,7 +7189,7 @@
         <v>752</v>
       </c>
       <c r="E239" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="240">
@@ -7206,7 +7206,7 @@
         <v>753</v>
       </c>
       <c r="E240" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="241">
@@ -7223,7 +7223,7 @@
         <v>754</v>
       </c>
       <c r="E241" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="242">
@@ -7257,7 +7257,7 @@
         <v>756</v>
       </c>
       <c r="E243" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="244">
@@ -7274,7 +7274,7 @@
         <v>757</v>
       </c>
       <c r="E244" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="245">
@@ -7291,7 +7291,7 @@
         <v>758</v>
       </c>
       <c r="E245" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="246">
@@ -7359,7 +7359,7 @@
         <v>762</v>
       </c>
       <c r="E249" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="250">
@@ -7427,7 +7427,7 @@
         <v>766</v>
       </c>
       <c r="E253" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="254">
@@ -7546,7 +7546,7 @@
         <v>771</v>
       </c>
       <c r="E260" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="261">
@@ -7563,7 +7563,7 @@
         <v>772</v>
       </c>
       <c r="E261" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="262">
@@ -7580,7 +7580,7 @@
         <v>773</v>
       </c>
       <c r="E262" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="263">
@@ -7614,7 +7614,7 @@
         <v>775</v>
       </c>
       <c r="E264" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="265">
@@ -7631,7 +7631,7 @@
         <v>776</v>
       </c>
       <c r="E265" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="266">
@@ -7648,7 +7648,7 @@
         <v>777</v>
       </c>
       <c r="E266" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="267">
@@ -7665,7 +7665,7 @@
         <v>778</v>
       </c>
       <c r="E267" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="268">
@@ -7682,7 +7682,7 @@
         <v>779</v>
       </c>
       <c r="E268" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="269">
@@ -7733,7 +7733,7 @@
         <v>780</v>
       </c>
       <c r="E271" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="272">
@@ -7750,7 +7750,7 @@
         <v>782</v>
       </c>
       <c r="E272" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="273">
@@ -7767,7 +7767,7 @@
         <v>783</v>
       </c>
       <c r="E273" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="274">
@@ -7784,7 +7784,7 @@
         <v>784</v>
       </c>
       <c r="E274" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="275">
@@ -7801,7 +7801,7 @@
         <v>785</v>
       </c>
       <c r="E275" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="276">
@@ -7818,7 +7818,7 @@
         <v>786</v>
       </c>
       <c r="E276" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="277">
@@ -7835,7 +7835,7 @@
         <v>787</v>
       </c>
       <c r="E277" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="278">
@@ -7852,7 +7852,7 @@
         <v>788</v>
       </c>
       <c r="E278" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="279">
@@ -7869,7 +7869,7 @@
         <v>789</v>
       </c>
       <c r="E279" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="280">
@@ -7903,7 +7903,7 @@
         <v>791</v>
       </c>
       <c r="E281" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="282">
@@ -7920,7 +7920,7 @@
         <v>792</v>
       </c>
       <c r="E282" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="283">
@@ -7937,7 +7937,7 @@
         <v>793</v>
       </c>
       <c r="E283" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="284">
@@ -8039,7 +8039,7 @@
         <v>799</v>
       </c>
       <c r="E289" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="290">
@@ -8056,7 +8056,7 @@
         <v>800</v>
       </c>
       <c r="E290" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="291">
@@ -8090,7 +8090,7 @@
         <v>802</v>
       </c>
       <c r="E292" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="293">
@@ -8124,7 +8124,7 @@
         <v>804</v>
       </c>
       <c r="E294" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="295">
@@ -8141,7 +8141,7 @@
         <v>805</v>
       </c>
       <c r="E295" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="296">
@@ -8175,7 +8175,7 @@
         <v>807</v>
       </c>
       <c r="E297" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="298">
@@ -8192,7 +8192,7 @@
         <v>808</v>
       </c>
       <c r="E298" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="299">
@@ -8294,7 +8294,7 @@
         <v>814</v>
       </c>
       <c r="E304" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="305">
@@ -8328,7 +8328,7 @@
         <v>816</v>
       </c>
       <c r="E306" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="307">
@@ -8345,7 +8345,7 @@
         <v>817</v>
       </c>
       <c r="E307" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="308">
@@ -8362,7 +8362,7 @@
         <v>818</v>
       </c>
       <c r="E308" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="309">
@@ -8379,7 +8379,7 @@
         <v>819</v>
       </c>
       <c r="E309" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="310">
@@ -8396,7 +8396,7 @@
         <v>820</v>
       </c>
       <c r="E310" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="311">
@@ -8430,7 +8430,7 @@
         <v>822</v>
       </c>
       <c r="E312" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="313">
@@ -8447,7 +8447,7 @@
         <v>823</v>
       </c>
       <c r="E313" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="314">
@@ -8464,7 +8464,7 @@
         <v>824</v>
       </c>
       <c r="E314" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="315">
@@ -8481,7 +8481,7 @@
         <v>825</v>
       </c>
       <c r="E315" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="316">
@@ -8498,7 +8498,7 @@
         <v>826</v>
       </c>
       <c r="E316" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="317">
@@ -8532,7 +8532,7 @@
         <v>828</v>
       </c>
       <c r="E318" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="319">
@@ -8600,7 +8600,7 @@
         <v>832</v>
       </c>
       <c r="E322" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="323">
@@ -8634,7 +8634,7 @@
         <v>834</v>
       </c>
       <c r="E324" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="325">
@@ -8651,7 +8651,7 @@
         <v>835</v>
       </c>
       <c r="E325" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="326">
@@ -8685,7 +8685,7 @@
         <v>837</v>
       </c>
       <c r="E327" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="328">
@@ -8702,7 +8702,7 @@
         <v>838</v>
       </c>
       <c r="E328" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="329">
@@ -8787,7 +8787,7 @@
         <v>843</v>
       </c>
       <c r="E333" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="334">
@@ -8804,7 +8804,7 @@
         <v>844</v>
       </c>
       <c r="E334" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="335">
@@ -8821,7 +8821,7 @@
         <v>845</v>
       </c>
       <c r="E335" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="336">
@@ -8889,7 +8889,7 @@
         <v>849</v>
       </c>
       <c r="E339" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="340">
@@ -8940,7 +8940,7 @@
         <v>852</v>
       </c>
       <c r="E342" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="343">
@@ -8957,7 +8957,7 @@
         <v>853</v>
       </c>
       <c r="E343" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="344">
@@ -8974,7 +8974,7 @@
         <v>854</v>
       </c>
       <c r="E344" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="345">
@@ -8991,7 +8991,7 @@
         <v>855</v>
       </c>
       <c r="E345" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="346">
@@ -9059,7 +9059,7 @@
         <v>859</v>
       </c>
       <c r="E349" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="350">
@@ -9076,7 +9076,7 @@
         <v>860</v>
       </c>
       <c r="E350" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="351">
@@ -9093,7 +9093,7 @@
         <v>861</v>
       </c>
       <c r="E351" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="352">
@@ -9110,7 +9110,7 @@
         <v>862</v>
       </c>
       <c r="E352" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="353">
@@ -9127,7 +9127,7 @@
         <v>863</v>
       </c>
       <c r="E353" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="354">
@@ -9144,7 +9144,7 @@
         <v>864</v>
       </c>
       <c r="E354" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="355">
@@ -9161,7 +9161,7 @@
         <v>865</v>
       </c>
       <c r="E355" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="356">
@@ -9178,7 +9178,7 @@
         <v>866</v>
       </c>
       <c r="E356" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="357">
@@ -9195,7 +9195,7 @@
         <v>867</v>
       </c>
       <c r="E357" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="358">
@@ -9229,7 +9229,7 @@
         <v>869</v>
       </c>
       <c r="E359" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="360">
@@ -9246,7 +9246,7 @@
         <v>870</v>
       </c>
       <c r="E360" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="361">
@@ -9263,7 +9263,7 @@
         <v>871</v>
       </c>
       <c r="E361" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="362">
@@ -9314,7 +9314,7 @@
         <v>874</v>
       </c>
       <c r="E364" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="365">
@@ -9331,7 +9331,7 @@
         <v>875</v>
       </c>
       <c r="E365" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="366">
@@ -9348,7 +9348,7 @@
         <v>876</v>
       </c>
       <c r="E366" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="367">
@@ -9365,7 +9365,7 @@
         <v>877</v>
       </c>
       <c r="E367" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="368">
@@ -9382,7 +9382,7 @@
         <v>878</v>
       </c>
       <c r="E368" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="369">
@@ -9416,7 +9416,7 @@
         <v>880</v>
       </c>
       <c r="E370" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="371">
@@ -9433,7 +9433,7 @@
         <v>881</v>
       </c>
       <c r="E371" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="372">
@@ -9484,7 +9484,7 @@
         <v>884</v>
       </c>
       <c r="E374" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="375">
@@ -9518,7 +9518,7 @@
         <v>886</v>
       </c>
       <c r="E376" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="377">
@@ -9552,7 +9552,7 @@
         <v>888</v>
       </c>
       <c r="E378" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="379">
@@ -9569,7 +9569,7 @@
         <v>889</v>
       </c>
       <c r="E379" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="380">
@@ -9586,7 +9586,7 @@
         <v>890</v>
       </c>
       <c r="E380" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="381">
@@ -9603,7 +9603,7 @@
         <v>891</v>
       </c>
       <c r="E381" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="382">
@@ -9637,7 +9637,7 @@
         <v>893</v>
       </c>
       <c r="E383" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="384">
@@ -9654,7 +9654,7 @@
         <v>894</v>
       </c>
       <c r="E384" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="385">
@@ -9671,7 +9671,7 @@
         <v>895</v>
       </c>
       <c r="E385" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="386">
@@ -9688,7 +9688,7 @@
         <v>896</v>
       </c>
       <c r="E386" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="387">
@@ -9705,7 +9705,7 @@
         <v>897</v>
       </c>
       <c r="E387" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="388">
@@ -9739,7 +9739,7 @@
         <v>899</v>
       </c>
       <c r="E389" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="390">
@@ -9773,7 +9773,7 @@
         <v>901</v>
       </c>
       <c r="E391" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="392">
@@ -9790,7 +9790,7 @@
         <v>902</v>
       </c>
       <c r="E392" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="393">
@@ -9807,7 +9807,7 @@
         <v>903</v>
       </c>
       <c r="E393" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="394">
@@ -9824,7 +9824,7 @@
         <v>904</v>
       </c>
       <c r="E394" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="395">
@@ -9841,7 +9841,7 @@
         <v>905</v>
       </c>
       <c r="E395" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="396">
@@ -9858,7 +9858,7 @@
         <v>906</v>
       </c>
       <c r="E396" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="397">
@@ -9875,7 +9875,7 @@
         <v>907</v>
       </c>
       <c r="E397" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="398">
@@ -9909,7 +9909,7 @@
         <v>909</v>
       </c>
       <c r="E399" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="400">
@@ -9926,7 +9926,7 @@
         <v>910</v>
       </c>
       <c r="E400" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="401">
@@ -10164,7 +10164,7 @@
         <v>924</v>
       </c>
       <c r="E414" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="415">
@@ -10198,7 +10198,7 @@
         <v>926</v>
       </c>
       <c r="E416" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="417">
@@ -10215,7 +10215,7 @@
         <v>927</v>
       </c>
       <c r="E417" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="418">
@@ -10283,7 +10283,7 @@
         <v>931</v>
       </c>
       <c r="E421" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="422">
@@ -10300,7 +10300,7 @@
         <v>932</v>
       </c>
       <c r="E422" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="423">
@@ -10317,7 +10317,7 @@
         <v>933</v>
       </c>
       <c r="E423" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="424">
@@ -10368,7 +10368,7 @@
         <v>936</v>
       </c>
       <c r="E426" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="427">
@@ -10419,7 +10419,7 @@
         <v>939</v>
       </c>
       <c r="E429" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="430">
@@ -10453,7 +10453,7 @@
         <v>941</v>
       </c>
       <c r="E431" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="432">
@@ -10470,7 +10470,7 @@
         <v>942</v>
       </c>
       <c r="E432" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="433">
@@ -10521,7 +10521,7 @@
         <v>945</v>
       </c>
       <c r="E435" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="436">
@@ -10538,7 +10538,7 @@
         <v>946</v>
       </c>
       <c r="E436" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="437">
@@ -10555,7 +10555,7 @@
         <v>947</v>
       </c>
       <c r="E437" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="438">
@@ -10572,7 +10572,7 @@
         <v>948</v>
       </c>
       <c r="E438" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="439">
@@ -10589,7 +10589,7 @@
         <v>949</v>
       </c>
       <c r="E439" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="440">
@@ -10606,7 +10606,7 @@
         <v>950</v>
       </c>
       <c r="E440" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="441">
@@ -10623,7 +10623,7 @@
         <v>951</v>
       </c>
       <c r="E441" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="442">
@@ -10640,7 +10640,7 @@
         <v>952</v>
       </c>
       <c r="E442" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="443">
@@ -10657,7 +10657,7 @@
         <v>953</v>
       </c>
       <c r="E443" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="444">
@@ -10674,7 +10674,7 @@
         <v>954</v>
       </c>
       <c r="E444" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="445">
@@ -10708,7 +10708,7 @@
         <v>956</v>
       </c>
       <c r="E446" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="447">
@@ -10725,7 +10725,7 @@
         <v>957</v>
       </c>
       <c r="E447" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="448">
@@ -10776,7 +10776,7 @@
         <v>960</v>
       </c>
       <c r="E450" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="451">
@@ -10793,7 +10793,7 @@
         <v>961</v>
       </c>
       <c r="E451" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="452">
@@ -10810,7 +10810,7 @@
         <v>962</v>
       </c>
       <c r="E452" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="453">
@@ -10827,7 +10827,7 @@
         <v>963</v>
       </c>
       <c r="E453" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="454">
@@ -10844,7 +10844,7 @@
         <v>964</v>
       </c>
       <c r="E454" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="455">
@@ -10861,7 +10861,7 @@
         <v>965</v>
       </c>
       <c r="E455" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="456">
@@ -10878,7 +10878,7 @@
         <v>966</v>
       </c>
       <c r="E456" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="457">
@@ -10895,7 +10895,7 @@
         <v>967</v>
       </c>
       <c r="E457" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="458">
@@ -10912,7 +10912,7 @@
         <v>968</v>
       </c>
       <c r="E458" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="459">
@@ -10929,7 +10929,7 @@
         <v>969</v>
       </c>
       <c r="E459" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="460">
@@ -10946,7 +10946,7 @@
         <v>970</v>
       </c>
       <c r="E460" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="461">
@@ -10980,7 +10980,7 @@
         <v>972</v>
       </c>
       <c r="E462" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="463">
@@ -10997,7 +10997,7 @@
         <v>973</v>
       </c>
       <c r="E463" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="464">
@@ -11014,7 +11014,7 @@
         <v>974</v>
       </c>
       <c r="E464" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="465">
@@ -11048,7 +11048,7 @@
         <v>976</v>
       </c>
       <c r="E466" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="467">
@@ -11065,7 +11065,7 @@
         <v>977</v>
       </c>
       <c r="E467" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="468">
@@ -11082,7 +11082,7 @@
         <v>978</v>
       </c>
       <c r="E468" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="469">
@@ -11099,7 +11099,7 @@
         <v>979</v>
       </c>
       <c r="E469" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="470">
@@ -11133,7 +11133,7 @@
         <v>981</v>
       </c>
       <c r="E471" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="472">
@@ -11150,7 +11150,7 @@
         <v>982</v>
       </c>
       <c r="E472" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="473">
@@ -11167,7 +11167,7 @@
         <v>983</v>
       </c>
       <c r="E473" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="474">
@@ -11218,7 +11218,7 @@
         <v>986</v>
       </c>
       <c r="E476" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="477">
@@ -11252,7 +11252,7 @@
         <v>988</v>
       </c>
       <c r="E478" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="479">
@@ -11269,7 +11269,7 @@
         <v>989</v>
       </c>
       <c r="E479" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="480">
@@ -11286,7 +11286,7 @@
         <v>990</v>
       </c>
       <c r="E480" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="481">
@@ -11303,7 +11303,7 @@
         <v>991</v>
       </c>
       <c r="E481" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="482">
@@ -11320,7 +11320,7 @@
         <v>992</v>
       </c>
       <c r="E482" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="483">
@@ -11337,7 +11337,7 @@
         <v>993</v>
       </c>
       <c r="E483" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="484">
@@ -11354,7 +11354,7 @@
         <v>994</v>
       </c>
       <c r="E484" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="485">
@@ -11371,7 +11371,7 @@
         <v>995</v>
       </c>
       <c r="E485" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="486">
@@ -11422,7 +11422,7 @@
         <v>998</v>
       </c>
       <c r="E488" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="489">
@@ -11456,7 +11456,7 @@
         <v>1000</v>
       </c>
       <c r="E490" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="491">
@@ -11473,7 +11473,7 @@
         <v>1001</v>
       </c>
       <c r="E491" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="492">
@@ -11490,7 +11490,7 @@
         <v>1002</v>
       </c>
       <c r="E492" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="493">
@@ -11507,7 +11507,7 @@
         <v>1003</v>
       </c>
       <c r="E493" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="494">
@@ -11524,7 +11524,7 @@
         <v>1004</v>
       </c>
       <c r="E494" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="495">
@@ -11541,7 +11541,7 @@
         <v>1005</v>
       </c>
       <c r="E495" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="496">
@@ -11558,7 +11558,7 @@
         <v>1006</v>
       </c>
       <c r="E496" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="497">
@@ -11575,7 +11575,7 @@
         <v>1007</v>
       </c>
       <c r="E497" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="498">
@@ -11592,7 +11592,7 @@
         <v>1008</v>
       </c>
       <c r="E498" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="499">
@@ -11609,7 +11609,7 @@
         <v>1009</v>
       </c>
       <c r="E499" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="500">
@@ -11660,7 +11660,7 @@
         <v>1012</v>
       </c>
       <c r="E502" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="503">
@@ -11677,7 +11677,7 @@
         <v>1013</v>
       </c>
       <c r="E503" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="504">
@@ -11694,7 +11694,7 @@
         <v>1014</v>
       </c>
       <c r="E504" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="505">
@@ -11711,7 +11711,7 @@
         <v>1015</v>
       </c>
       <c r="E505" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="506">
@@ -11728,7 +11728,7 @@
         <v>1016</v>
       </c>
       <c r="E506" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="507">
@@ -11745,7 +11745,7 @@
         <v>1017</v>
       </c>
       <c r="E507" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="508">
@@ -11762,7 +11762,7 @@
         <v>1018</v>
       </c>
       <c r="E508" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="509">
@@ -11779,7 +11779,7 @@
         <v>1019</v>
       </c>
       <c r="E509" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="510">
@@ -11796,7 +11796,7 @@
         <v>1020</v>
       </c>
       <c r="E510" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="511">
@@ -11813,7 +11813,7 @@
         <v>1021</v>
       </c>
       <c r="E511" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="512">
@@ -11830,7 +11830,7 @@
         <v>1022</v>
       </c>
       <c r="E512" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
